--- a/router/exportFiles/clear_info.xlsx
+++ b/router/exportFiles/clear_info.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,54 +405,77 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="A2" t="str">
+        <v>12345678</v>
+      </c>
+      <c r="B2" t="str">
+        <v>12345678</v>
       </c>
       <c r="C2">
-        <v>9168.5</v>
-      </c>
-      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="D2" t="str">
         <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="str">
-        <v>0000-00-00 00:00:00</v>
-      </c>
-      <c r="G2" t="str">
-        <v>0000-00-00 00:00:00</v>
+      <c r="F2" s="1">
+        <v>43566.666666666664</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43567.666666666664</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>12345678</v>
-      </c>
-      <c r="B3">
-        <v>12345678</v>
+      <c r="A3" t="str">
+        <v>Q000001</v>
+      </c>
+      <c r="B3" t="str">
+        <v>C000001</v>
       </c>
       <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3">
+        <v>9168.5</v>
+      </c>
+      <c r="D3" t="str">
         <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>43566.666666666664</v>
+        <v>43850.666666666664</v>
       </c>
       <c r="G3" s="1">
-        <v>43567.666666666664</v>
+        <v>44259.666666666664</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Q000002</v>
+      </c>
+      <c r="B4" t="str">
+        <v>C000002</v>
+      </c>
+      <c r="C4">
+        <v>76328</v>
+      </c>
+      <c r="D4" t="str">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43835.666666666664</v>
+      </c>
+      <c r="G4" s="1">
+        <v>44568.666666666664</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/router/exportFiles/clear_info.xlsx
+++ b/router/exportFiles/clear_info.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -395,87 +395,73 @@
         <v>定金状态</v>
       </c>
       <c r="E1" t="str">
+        <v>尾款总额</v>
+      </c>
+      <c r="F1" t="str">
         <v>尾款状态</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>定金支付时间</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>尾款支付时间</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>12345678</v>
+        <v>Q000001</v>
       </c>
       <c r="B2" t="str">
-        <v>12345678</v>
+        <v>C000001</v>
       </c>
       <c r="C2">
-        <v>40</v>
-      </c>
-      <c r="D2" t="str">
+        <v>9168.5</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
-        <v>43566.666666666664</v>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>43567.666666666664</v>
+        <v>43830.666666666664</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43830.666666666664</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Q000001</v>
+        <v>Q000002</v>
       </c>
       <c r="B3" t="str">
-        <v>C000001</v>
+        <v>C000002</v>
       </c>
       <c r="C3">
-        <v>9168.5</v>
-      </c>
-      <c r="D3" t="str">
+        <v>76328</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <v>43850.666666666664</v>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>44259.666666666664</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Q000002</v>
-      </c>
-      <c r="B4" t="str">
-        <v>C000002</v>
-      </c>
-      <c r="C4">
-        <v>76328</v>
-      </c>
-      <c r="D4" t="str">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>43835.666666666664</v>
-      </c>
-      <c r="G4" s="1">
-        <v>44568.666666666664</v>
+        <v>43830.666666666664</v>
+      </c>
+      <c r="H3" s="1">
+        <v>43830.666666666664</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
   </ignoredErrors>
 </worksheet>
 </file>